--- a/DAQ.xlsx
+++ b/DAQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yesse\Google Drive\DAQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yesse\Google Drive\PCB-DAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF9A464C-7248-4CFA-B20B-4680B2D0825C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC4C921-A0BE-4DB9-AA63-AABDC45648D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19050" windowHeight="8130"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19050" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAQ" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Value</t>
   </si>
@@ -37,15 +37,6 @@
     <t>SPC4077</t>
   </si>
   <si>
-    <t>MCLR</t>
-  </si>
-  <si>
-    <t>B3F-10XX</t>
-  </si>
-  <si>
-    <t>switch-omron</t>
-  </si>
-  <si>
     <t>20MHz</t>
   </si>
   <si>
@@ -91,21 +82,12 @@
     <t>Entrada de Volt</t>
   </si>
   <si>
-    <t xml:space="preserve">LED Rojo </t>
-  </si>
-  <si>
     <t>3MM</t>
   </si>
   <si>
-    <t>Led Verde</t>
-  </si>
-  <si>
     <t>Oscilador</t>
   </si>
   <si>
-    <t>Selector Hembra</t>
-  </si>
-  <si>
     <t>USB tipo B Hembra</t>
   </si>
   <si>
@@ -113,12 +95,66 @@
   </si>
   <si>
     <t>Push MCLR</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/US-Stock-20pcs-1-x-40-Pin-2-54mm-Single-Row-Round-Female-Pin-Header-Connector/391680085346?hash=item5b31f3cd62:g:5VUAAOSwA3dYfs4z:rk:6:pf:0</t>
+  </si>
+  <si>
+    <t>PAQUETES</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/US-Stock-50pcs-Electrolytic-Capacitors-4-7uF-4-7mfd-100V-105-Radial-5-x-11mm/401274644297?hash=item5d6dd52749:g:qeAAAOSwOMtbZ~M0:rk:20:pf:0</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/US-Stock-20pcs-20MHZ-20-000M-HZ-HC-49S-Crystal-Oscillator-Arduino-Breadboard/392053781551?hash=item5b4839f42f:g:vu0AAOSw4CFYrpAd:sc:ShippingMethodStandard!90280!US!-1:rk:10:pf:0</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Microchip-Technology/PIC18F4550-I-P?qs=sGAEpiMZZMvqv2n3s2xjsXReEaAKUmyLmo4d8U18O4I%3d</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/20pcs-L7805-LM7805-7805-Voltage-Regulator-5V-1-5A-US-Stock-M214/113413591160?hash=item1a67fa1078:g:5V4AAOSw1iNbDkQG:rk:10:pf:0</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/20-Oupiin-2MM-DC-Power-Connector-Jacks-Angle-Receptacle-30V-3A-Max-8963-2503TRB/301748384989?epid=1947972643&amp;hash=item46419af4dd:g:CZgAAOSwHjNWAiEs:sc:USPSFirstClass!90280!US!-1:rk:3:pf:0</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/100Pcs-3mm-LED-Red-Green-Blue-Yellow-White-Light-Emitting-Diode-Lamp-2-Pins-M283/401461002674?hash=item5d78f0c1b2:g:JX4AAOSwHPlWdMR7:rk:54:pf:0</t>
+  </si>
+  <si>
+    <t>LED Rojo y Verde</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/50-PCS-lot-Tactile-Push-Button-Switch-6x6x5mm-US-Shipping/222056996093?hash=item33b3a0dcfd:g:4BkAAOSwbg9W6w7O:rk:32:pf:0</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/20-Pcs-Shielded-Right-Angle-4-Pin-USB-2-0-Type-B-Female-Jack-Socket/351962207448?epid=1438796109&amp;hash=item51f29514d8:g:V04AAOSwoEFcBFPV</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kenable-Speed-Cable-Printer-24AWG/dp/B07167BC5L/ref=sr_1_5?ie=UTF8&amp;qid=1545072698&amp;sr=8-5&amp;keywords=usb+type+b+cable+male</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/EbuyChX-Bridge-2-54mm-Circuit-Jumper/dp/B07KYQ9LWP/ref=sr_1_3?ie=UTF8&amp;qid=1545074039&amp;sr=8-3&amp;keywords=2.54mm+bridges</t>
+  </si>
+  <si>
+    <t>Selector Hembra Jumper</t>
+  </si>
+  <si>
+    <t>USB Female</t>
+  </si>
+  <si>
+    <t>USB Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Switch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -565,6 +601,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -611,13 +662,17 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -973,240 +1028,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>60</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="E13" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://www.ebay.com/itm/QTY-100-15pf-100V-2-NPO-MINIATURE-CERAMIC-PLATE-CAPACITORS-2222-688-10159/121625017696?_trkparms=aid%3D888007%26algo%3DDISC.MBE%26ao%3D1%26asc%3D20131227121020%26meid%3D1087b9715f2b4551bda7ebd665b1eda6%26pid%3D100009%26rk%3D1%26rkt%3D1%26sd%3D391680089907%26itm%3D121625017696&amp;_trksid=p2047675.c100009.m1982"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://www.ebay.com/itm/QTY-100-15pf-100V-2-NPO-MINIATURE-CERAMIC-PLATE-CAPACITORS-2222-688-10159/121625017696?_trkparms=aid%3D888007%26algo%3DDISC.MBE%26ao%3D1%26asc%3D20131227121020%26meid%3D1087b9715f2b4551bda7ebd665b1eda6%26pid%3D100009%26rk%3D1%26rkt%3D1%26sd%3D391680089907%26itm%3D121625017696&amp;_trksid=p2047675.c100009.m1982" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{75244DAC-61DB-4FFF-8F92-F313CA4CB0CE}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{108D19D8-0E92-46FD-8329-902C648F2EC2}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{8B45ED0E-0639-4E3A-9DCD-DA0C375EFC30}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{548C3F06-A4CB-4184-A118-BA9F6B55F96B}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{5EDE3F43-B282-4C91-AF09-2ED59EB8C06B}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{8D215A2A-FC1B-43DD-B1A2-303DCE98E537}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{22631547-54E7-4DF8-8078-8DF8FCCA9FE3}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{4EC1340F-CA1E-411E-8C99-D37372132334}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{153D516E-242B-4E9B-902B-F5244FB5AAD0}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{8FD172E1-AA52-42DB-9830-9AAB0B36E81C}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{0E659B97-475E-4C87-8184-459156D798A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DAQ.xlsx
+++ b/DAQ.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yesse\Google Drive\PCB-DAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC4C921-A0BE-4DB9-AA63-AABDC45648D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECC630C-2829-4238-BE8C-F8D22ED16801}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19050" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAQ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>1 2 3 4</t>
-  </si>
-  <si>
     <t>PIC18F4550_40</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Capacitores</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>PinHeaders</t>
   </si>
   <si>
-    <t>35*30</t>
-  </si>
-  <si>
     <t>https://www.ebay.com/itm/QTY-100-15pf-100V-2-NPO-MINIATURE-CERAMIC-PLATE-CAPACITORS-2222-688-10159/121625017696?_trkparms=aid%3D888007%26algo%3DDISC.MBE%26ao%3D1%26asc%3D20131227121020%26meid%3D1087b9715f2b4551bda7ebd665b1eda6%26pid%3D100009%26rk%3D1%26rkt%3D1%26sd%3D391680089907%26itm%3D121625017696&amp;_trksid=p2047675.c100009.m1982</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>https://www.ebay.com/itm/US-Stock-50pcs-Electrolytic-Capacitors-4-7uF-4-7mfd-100V-105-Radial-5-x-11mm/401274644297?hash=item5d6dd52749:g:qeAAAOSwOMtbZ~M0:rk:20:pf:0</t>
   </si>
   <si>
-    <t>https://www.ebay.com/itm/US-Stock-20pcs-20MHZ-20-000M-HZ-HC-49S-Crystal-Oscillator-Arduino-Breadboard/392053781551?hash=item5b4839f42f:g:vu0AAOSw4CFYrpAd:sc:ShippingMethodStandard!90280!US!-1:rk:10:pf:0</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Microchip-Technology/PIC18F4550-I-P?qs=sGAEpiMZZMvqv2n3s2xjsXReEaAKUmyLmo4d8U18O4I%3d</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>LED Rojo y Verde</t>
   </si>
   <si>
-    <t>https://www.ebay.com/itm/50-PCS-lot-Tactile-Push-Button-Switch-6x6x5mm-US-Shipping/222056996093?hash=item33b3a0dcfd:g:4BkAAOSwbg9W6w7O:rk:32:pf:0</t>
-  </si>
-  <si>
     <t>https://www.ebay.com/itm/20-Pcs-Shielded-Right-Angle-4-Pin-USB-2-0-Type-B-Female-Jack-Socket/351962207448?epid=1438796109&amp;hash=item51f29514d8:g:V04AAOSwoEFcBFPV</t>
   </si>
   <si>
@@ -149,13 +134,43 @@
   </si>
   <si>
     <t>Switch</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Cantidad a ocuparse</t>
+  </si>
+  <si>
+    <t>Copper PCB Fiber GLASS</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/10x-PCB-Glass-Fiber-Copper-Clad-Boards-4-x-2-7-100-x-70mm/273630251060?hash=item3fb5a24834:g:fmQAAOSw55FcJqXV:rk:27:pf:0</t>
+  </si>
+  <si>
+    <t>Costo Por Paquete</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/50pcs-6x6x4-3mm-4pin-tactile-tact-push-button-micro-switch-dip-feet-copper-RS/112980233829?epid=10015442544&amp;hash=item1a4e258e65:rk:39:pf:0</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/20Pcs-20MHz-20-000-MHz-Crystal-Oscillator-HC-49S-20MHz/253685924211?hash=item3b10dc0173:rk:4:pf:0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +313,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +646,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -661,8 +690,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -673,8 +703,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -708,6 +764,7 @@
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="43" builtinId="3"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1028,11 +1085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,277 +1097,398 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="146.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="8">
+        <v>11.08</v>
+      </c>
+      <c r="G2" s="9">
+        <f>PRODUCT(F2,E2)</f>
+        <v>22.16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4">
         <v>60</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <v>9.99</v>
+      </c>
+      <c r="G3" s="9">
+        <f>PRODUCT(F3,E3)</f>
+        <v>9.99</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>60</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="7">
+        <v>6.72</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G14" si="0">PRODUCT(F4,E4)</f>
+        <v>6.72</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>30</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>30</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>138.30000000000001</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
         <v>30</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4">
         <v>30</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>15.98</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
         <v>60</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="7">
+        <v>3.99</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>3.99</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4">
         <v>30</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="7">
+        <v>5.18</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>5.18</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4">
         <v>30</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>11.98</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
+        <v>9.16</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>9.16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4">
         <v>30</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7">
+        <v>10.19</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>20.38</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="D13" s="12">
         <v>30</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="13">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="13">
+        <v>2.63</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>78.899999999999991</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
+        <v>30</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>41.7</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="15">
+        <f>SUM(G2:G14)</f>
+        <v>373.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1348,19 +1526,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="https://www.ebay.com/itm/QTY-100-15pf-100V-2-NPO-MINIATURE-CERAMIC-PLATE-CAPACITORS-2222-688-10159/121625017696?_trkparms=aid%3D888007%26algo%3DDISC.MBE%26ao%3D1%26asc%3D20131227121020%26meid%3D1087b9715f2b4551bda7ebd665b1eda6%26pid%3D100009%26rk%3D1%26rkt%3D1%26sd%3D391680089907%26itm%3D121625017696&amp;_trksid=p2047675.c100009.m1982" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{75244DAC-61DB-4FFF-8F92-F313CA4CB0CE}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{108D19D8-0E92-46FD-8329-902C648F2EC2}"/>
-    <hyperlink ref="F10" r:id="rId4" xr:uid="{8B45ED0E-0639-4E3A-9DCD-DA0C375EFC30}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{548C3F06-A4CB-4184-A118-BA9F6B55F96B}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{5EDE3F43-B282-4C91-AF09-2ED59EB8C06B}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{8D215A2A-FC1B-43DD-B1A2-303DCE98E537}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{22631547-54E7-4DF8-8078-8DF8FCCA9FE3}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{4EC1340F-CA1E-411E-8C99-D37372132334}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{153D516E-242B-4E9B-902B-F5244FB5AAD0}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{8FD172E1-AA52-42DB-9830-9AAB0B36E81C}"/>
-    <hyperlink ref="F11" r:id="rId12" xr:uid="{0E659B97-475E-4C87-8184-459156D798A7}"/>
+    <hyperlink ref="H3" r:id="rId1" display="https://www.ebay.com/itm/QTY-100-15pf-100V-2-NPO-MINIATURE-CERAMIC-PLATE-CAPACITORS-2222-688-10159/121625017696?_trkparms=aid%3D888007%26algo%3DDISC.MBE%26ao%3D1%26asc%3D20131227121020%26meid%3D1087b9715f2b4551bda7ebd665b1eda6%26pid%3D100009%26rk%3D1%26rkt%3D1%26sd%3D391680089907%26itm%3D121625017696&amp;_trksid=p2047675.c100009.m1982" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H11" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>